--- a/RMI/RMI/media/Reporte/FRANCY MUÑOZ.xlsx
+++ b/RMI/RMI/media/Reporte/FRANCY MUÑOZ.xlsx
@@ -7,18 +7,18 @@
     <sheet state="visible" name="Hoja1" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="Actividad">Hoja1!$C$1:$C$2</definedName>
+    <definedName name="AUTO">'RMI - SEPTIEMBRE 2017'!$H$37:$Z$38</definedName>
     <definedName name="Tipo2">Hoja1!$A$1:$A$7</definedName>
+    <definedName name="Tipo">Hoja1!$A$1:$A$5</definedName>
     <definedName name="AUTORIZACIÓN">'RMI - SEPTIEMBRE 2017'!$H$37:$Z$38</definedName>
-    <definedName name="Tipo">Hoja1!$A$1:$A$5</definedName>
-    <definedName name="AUTO">'RMI - SEPTIEMBRE 2017'!$H$37:$Z$38</definedName>
-    <definedName name="Actividad">Hoja1!$C$1:$C$2</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>DESARROLLO CURRICULAR</t>
   </si>
@@ -190,7 +190,7 @@
     <t>MANEJAR LAS HERRAMIENTAS Y EQUIPOS SEGÚN ACTIVIDAD A DESARROLLAR Y MANUALES TECNICOS</t>
   </si>
   <si>
-    <t>07:00  13:00</t>
+    <t>07:00  14:00</t>
   </si>
   <si>
     <t>CONSTRUCCION 201</t>
@@ -202,13 +202,10 @@
     <t>13:00    19:00</t>
   </si>
   <si>
-    <t>16:00    19:00</t>
-  </si>
-  <si>
     <t>CONSTRUCCION 204</t>
   </si>
   <si>
-    <t>EVENTO COMPARTIDO CON LA INSTRUCTORA JANET TORRES Y EL INGENIERO ERICK</t>
+    <t xml:space="preserve">EVENTO COMPARTIDO CON LA INSTRUCTORA JANET TORRES </t>
   </si>
   <si>
     <t>TRAZAR Y LOCALIZAR PROYECTOS VIALES DEACUERO CON  NORMAS PLANOS Y ESPECIFICACIONES</t>
@@ -828,18 +825,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1078,6 +1063,18 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <top/>
@@ -1270,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="176">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1419,42 +1416,37 @@
     <xf borderId="36" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="37" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="38" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="38" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="39" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="40" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="41" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="42" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="43" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="44" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="37" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="45" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="6" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="39" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="46" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="47" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="48" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="49" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1462,58 +1454,63 @@
     <xf borderId="51" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="52" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="53" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="54" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="55" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="54" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="55" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="56" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="57" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="57" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="58" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="59" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="60" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="60" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="58" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="58" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="58" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="61" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="59" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="58" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="59" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="59" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="58" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="61" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="59" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="59" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="62" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="63" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="55" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="62" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="54" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="64" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="63" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="59" fillId="3" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="58" fillId="3" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="65" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="64" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="65" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="34" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1521,7 +1518,7 @@
     <xf borderId="67" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="68" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="69" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1533,11 +1530,14 @@
     <xf borderId="71" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="72" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="73" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="60" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="59" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="34" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1611,58 +1611,49 @@
     <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="58" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="22" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="31" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="32" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="89" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="65" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="74" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="59" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="22" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="31" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="32" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="89" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="58" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="58" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="74" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="60" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="59" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="58" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="59" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="59" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="58" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="59" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="62" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="61" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="75" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2272,7 +2263,7 @@
         <v>47</v>
       </c>
       <c r="H13" s="58">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="I13" s="59"/>
       <c r="J13" s="60" t="s">
@@ -2289,30 +2280,28 @@
       <c r="Q13" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="62">
-        <v>12.0</v>
-      </c>
+      <c r="R13" s="62"/>
       <c r="S13" s="62">
         <v>3.0</v>
       </c>
       <c r="T13" s="63">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="U13" s="64"/>
       <c r="V13" s="65"/>
       <c r="W13" s="66">
         <v>1.0</v>
       </c>
-      <c r="X13" s="67">
+      <c r="X13" s="65">
         <v>2.0</v>
       </c>
       <c r="Y13" s="66">
-        <v>3.0</v>
-      </c>
-      <c r="Z13" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="AA13" s="69" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="Z13" s="67">
+        <v>2.0</v>
+      </c>
+      <c r="AA13" s="68" t="s">
         <v>50</v>
       </c>
       <c r="AB13" s="9"/>
@@ -2327,14 +2316,14 @@
       <c r="AK13" s="9"/>
     </row>
     <row r="14" ht="56.25" customHeight="1">
-      <c r="A14" s="70"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="12"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -2346,26 +2335,26 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="64">
+      <c r="T14" s="73"/>
+      <c r="U14" s="74">
+        <v>4.0</v>
+      </c>
+      <c r="V14" s="66">
+        <v>5.0</v>
+      </c>
+      <c r="W14" s="65">
         <v>6.0</v>
       </c>
-      <c r="V14" s="66">
+      <c r="X14" s="66">
         <v>7.0</v>
       </c>
-      <c r="W14" s="65">
+      <c r="Y14" s="65">
         <v>8.0</v>
       </c>
-      <c r="X14" s="75">
+      <c r="Z14" s="75">
         <v>9.0</v>
       </c>
-      <c r="Y14" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="Z14" s="76">
-        <v>11.0</v>
-      </c>
-      <c r="AA14" s="77"/>
+      <c r="AA14" s="76"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -2378,14 +2367,14 @@
       <c r="AK14" s="9"/>
     </row>
     <row r="15" ht="53.25" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="12"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2397,26 +2386,26 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="78">
+      <c r="T15" s="73"/>
+      <c r="U15" s="77">
+        <v>11.0</v>
+      </c>
+      <c r="V15" s="65">
+        <v>12.0</v>
+      </c>
+      <c r="W15" s="65">
         <v>13.0</v>
       </c>
-      <c r="V15" s="65">
+      <c r="X15" s="65">
         <v>14.0</v>
       </c>
-      <c r="W15" s="65">
+      <c r="Y15" s="65">
         <v>15.0</v>
       </c>
-      <c r="X15" s="65">
+      <c r="Z15" s="75">
         <v>16.0</v>
       </c>
-      <c r="Y15" s="65">
-        <v>17.0</v>
-      </c>
-      <c r="Z15" s="76">
-        <v>18.0</v>
-      </c>
-      <c r="AA15" s="77"/>
+      <c r="AA15" s="76"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -2429,14 +2418,14 @@
       <c r="AK15" s="9"/>
     </row>
     <row r="16" ht="53.25" customHeight="1">
-      <c r="A16" s="70"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2448,26 +2437,14 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="79">
-        <v>20.0</v>
-      </c>
-      <c r="V16" s="65">
-        <v>21.0</v>
-      </c>
-      <c r="W16" s="65">
-        <v>22.0</v>
-      </c>
-      <c r="X16" s="67">
-        <v>23.0</v>
-      </c>
-      <c r="Y16" s="65">
-        <v>24.0</v>
-      </c>
-      <c r="Z16" s="76">
-        <v>25.0</v>
-      </c>
-      <c r="AA16" s="77"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="76"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -2480,14 +2457,14 @@
       <c r="AK16" s="9"/>
     </row>
     <row r="17" ht="53.25" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="12"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2499,22 +2476,14 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="79">
-        <v>27.0</v>
-      </c>
-      <c r="V17" s="65">
-        <v>28.0</v>
-      </c>
-      <c r="W17" s="65">
-        <v>29.0</v>
-      </c>
-      <c r="X17" s="67">
-        <v>30.0</v>
-      </c>
+      <c r="T17" s="73"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
       <c r="Y17" s="65"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="80"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="78"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2527,32 +2496,32 @@
       <c r="AK17" s="9"/>
     </row>
     <row r="18" ht="57.0" customHeight="1">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="90"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="88"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -2566,51 +2535,51 @@
       <c r="AK18" s="9"/>
     </row>
     <row r="19" ht="57.0" customHeight="1">
-      <c r="A19" s="91">
+      <c r="A19" s="89">
         <v>1554545.0</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="90">
         <v>160.0</v>
       </c>
-      <c r="F19" s="92" t="s">
+      <c r="F19" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="92" t="s">
+      <c r="G19" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="93">
+      <c r="H19" s="91">
         <v>29.0</v>
       </c>
-      <c r="I19" s="94"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="96" t="s">
+      <c r="I19" s="92"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97" t="s">
+      <c r="P19" s="94"/>
+      <c r="Q19" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="98">
-        <v>12.0</v>
-      </c>
-      <c r="S19" s="99">
-        <v>12.0</v>
-      </c>
-      <c r="T19" s="100">
-        <v>36.0</v>
+      <c r="R19" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="97">
+        <v>14.0</v>
+      </c>
+      <c r="T19" s="98">
+        <v>14.0</v>
       </c>
       <c r="U19" s="64"/>
       <c r="V19" s="65"/>
@@ -2621,12 +2590,12 @@
         <v>2.0</v>
       </c>
       <c r="Y19" s="66">
-        <v>3.0</v>
-      </c>
-      <c r="Z19" s="101">
-        <v>4.0</v>
-      </c>
-      <c r="AA19" s="69" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="Z19" s="99">
+        <v>2.0</v>
+      </c>
+      <c r="AA19" s="68" t="s">
         <v>57</v>
       </c>
       <c r="AB19" s="9"/>
@@ -2641,7 +2610,7 @@
       <c r="AK19" s="9"/>
     </row>
     <row r="20" ht="57.0" customHeight="1">
-      <c r="A20" s="70"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2660,26 +2629,26 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="71"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="64">
+        <v>4.0</v>
+      </c>
+      <c r="V20" s="66">
+        <v>5.0</v>
+      </c>
+      <c r="W20" s="65">
         <v>6.0</v>
       </c>
-      <c r="V20" s="66">
+      <c r="X20" s="66">
         <v>7.0</v>
       </c>
-      <c r="W20" s="65">
+      <c r="Y20" s="65">
         <v>8.0</v>
       </c>
-      <c r="X20" s="66">
+      <c r="Z20" s="100">
         <v>9.0</v>
       </c>
-      <c r="Y20" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="Z20" s="102">
-        <v>11.0</v>
-      </c>
-      <c r="AA20" s="77"/>
+      <c r="AA20" s="76"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2692,7 +2661,7 @@
       <c r="AK20" s="9"/>
     </row>
     <row r="21" ht="57.0" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -2711,26 +2680,26 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="78">
+      <c r="T21" s="70"/>
+      <c r="U21" s="101">
+        <v>11.0</v>
+      </c>
+      <c r="V21" s="65">
+        <v>12.0</v>
+      </c>
+      <c r="W21" s="65">
         <v>13.0</v>
       </c>
-      <c r="V21" s="65">
+      <c r="X21" s="65">
         <v>14.0</v>
       </c>
-      <c r="W21" s="65">
+      <c r="Y21" s="65">
         <v>15.0</v>
       </c>
-      <c r="X21" s="65">
+      <c r="Z21" s="75">
         <v>16.0</v>
       </c>
-      <c r="Y21" s="65">
-        <v>17.0</v>
-      </c>
-      <c r="Z21" s="102">
-        <v>18.0</v>
-      </c>
-      <c r="AA21" s="77"/>
+      <c r="AA21" s="76"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2743,7 +2712,7 @@
       <c r="AK21" s="9"/>
     </row>
     <row r="22" ht="57.0" customHeight="1">
-      <c r="A22" s="70"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -2762,26 +2731,14 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="64">
-        <v>20.0</v>
-      </c>
-      <c r="V22" s="65">
-        <v>21.0</v>
-      </c>
-      <c r="W22" s="65">
-        <v>22.0</v>
-      </c>
-      <c r="X22" s="65">
-        <v>23.0</v>
-      </c>
-      <c r="Y22" s="65">
-        <v>24.0</v>
-      </c>
-      <c r="Z22" s="102">
-        <v>25.0</v>
-      </c>
-      <c r="AA22" s="77"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="76"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -2794,7 +2751,7 @@
       <c r="AK22" s="9"/>
     </row>
     <row r="23" ht="57.0" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -2813,22 +2770,14 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="64">
-        <v>27.0</v>
-      </c>
-      <c r="V23" s="65">
-        <v>28.0</v>
-      </c>
-      <c r="W23" s="65">
-        <v>29.0</v>
-      </c>
-      <c r="X23" s="65">
-        <v>30.0</v>
-      </c>
+      <c r="T23" s="70"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
       <c r="Y23" s="65"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="80"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="78"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -2841,32 +2790,32 @@
       <c r="AK23" s="9"/>
     </row>
     <row r="24" ht="57.0" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="90"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="88"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
@@ -2880,70 +2829,70 @@
       <c r="AK24" s="9"/>
     </row>
     <row r="25" ht="57.0" customHeight="1">
-      <c r="A25" s="105">
+      <c r="A25" s="104">
         <v>1507163.0</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="90">
         <v>30.0</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F25" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="92" t="s">
+      <c r="G25" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="93">
+      <c r="H25" s="91">
         <v>26.0</v>
       </c>
-      <c r="I25" s="94"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="92" t="s">
+      <c r="I25" s="92"/>
+      <c r="J25" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="95"/>
-      <c r="N25" s="106" t="s">
+      <c r="K25" s="93"/>
+      <c r="L25" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="93"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="R25" s="98">
-        <v>1.0</v>
-      </c>
-      <c r="S25" s="99">
+      <c r="R25" s="96">
+        <v>12.0</v>
+      </c>
+      <c r="S25" s="97">
+        <v>6.0</v>
+      </c>
+      <c r="T25" s="98">
         <v>24.0</v>
-      </c>
-      <c r="T25" s="100">
-        <v>42.0</v>
       </c>
       <c r="U25" s="64"/>
       <c r="V25" s="65"/>
-      <c r="W25" s="75">
+      <c r="W25" s="66">
         <v>1.0</v>
       </c>
-      <c r="X25" s="67">
+      <c r="X25" s="65">
         <v>2.0</v>
       </c>
       <c r="Y25" s="66">
-        <v>3.0</v>
-      </c>
-      <c r="Z25" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="AA25" s="107" t="s">
-        <v>61</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z25" s="67">
+        <v>2.0</v>
+      </c>
+      <c r="AA25" s="106" t="s">
+        <v>60</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -2957,7 +2906,7 @@
       <c r="AK25" s="9"/>
     </row>
     <row r="26" ht="57.0" customHeight="1">
-      <c r="A26" s="108"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -2976,24 +2925,24 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="64">
+      <c r="T26" s="70"/>
+      <c r="U26" s="74">
+        <v>4.0</v>
+      </c>
+      <c r="V26" s="66">
+        <v>5.0</v>
+      </c>
+      <c r="W26" s="108">
         <v>6.0</v>
       </c>
-      <c r="V26" s="66">
+      <c r="X26" s="66">
         <v>7.0</v>
       </c>
-      <c r="W26" s="67">
+      <c r="Y26" s="65">
         <v>8.0</v>
       </c>
-      <c r="X26" s="75">
+      <c r="Z26" s="75">
         <v>9.0</v>
-      </c>
-      <c r="Y26" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="Z26" s="76">
-        <v>11.0</v>
       </c>
       <c r="AA26" s="11"/>
       <c r="AD26" s="12"/>
@@ -3006,7 +2955,7 @@
       <c r="AK26" s="9"/>
     </row>
     <row r="27" ht="57.0" customHeight="1">
-      <c r="A27" s="108"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -3025,24 +2974,24 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="78">
+      <c r="T27" s="70"/>
+      <c r="U27" s="77">
+        <v>11.0</v>
+      </c>
+      <c r="V27" s="65">
+        <v>12.0</v>
+      </c>
+      <c r="W27" s="108">
         <v>13.0</v>
       </c>
-      <c r="V27" s="65">
+      <c r="X27" s="65">
         <v>14.0</v>
       </c>
-      <c r="W27" s="67">
+      <c r="Y27" s="65">
         <v>15.0</v>
       </c>
-      <c r="X27" s="65">
+      <c r="Z27" s="75">
         <v>16.0</v>
-      </c>
-      <c r="Y27" s="65">
-        <v>17.0</v>
-      </c>
-      <c r="Z27" s="76">
-        <v>18.0</v>
       </c>
       <c r="AA27" s="15"/>
       <c r="AB27" s="16"/>
@@ -3057,7 +3006,7 @@
       <c r="AK27" s="9"/>
     </row>
     <row r="28" ht="57.0" customHeight="1">
-      <c r="A28" s="108"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -3076,25 +3025,13 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="64">
-        <v>20.0</v>
-      </c>
-      <c r="V28" s="65">
-        <v>21.0</v>
-      </c>
-      <c r="W28" s="67">
-        <v>22.0</v>
-      </c>
-      <c r="X28" s="67">
-        <v>23.0</v>
-      </c>
-      <c r="Y28" s="65">
-        <v>24.0</v>
-      </c>
-      <c r="Z28" s="76">
-        <v>25.0</v>
-      </c>
+      <c r="T28" s="70"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="75"/>
       <c r="AA28" s="109"/>
       <c r="AB28" s="110"/>
       <c r="AC28" s="110"/>
@@ -3108,7 +3045,7 @@
       <c r="AK28" s="9"/>
     </row>
     <row r="29" ht="57.0" customHeight="1">
-      <c r="A29" s="108"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -3127,22 +3064,14 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="64">
-        <v>27.0</v>
-      </c>
-      <c r="V29" s="65">
-        <v>28.0</v>
-      </c>
-      <c r="W29" s="67">
-        <v>29.0</v>
-      </c>
-      <c r="X29" s="67">
-        <v>30.0</v>
-      </c>
+      <c r="T29" s="70"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
       <c r="Y29" s="65"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="73"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="72"/>
       <c r="AD29" s="112"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
@@ -3154,25 +3083,25 @@
     </row>
     <row r="30" ht="57.0" customHeight="1">
       <c r="A30" s="113"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="83"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="81"/>
       <c r="U30" s="114"/>
       <c r="V30" s="115"/>
       <c r="W30" s="115"/>
@@ -3192,72 +3121,72 @@
       <c r="AK30" s="9"/>
     </row>
     <row r="31" ht="57.0" customHeight="1">
-      <c r="A31" s="91">
+      <c r="A31" s="89">
         <v>1196026.0</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97">
+      <c r="D31" s="95"/>
+      <c r="E31" s="95">
         <v>174.0</v>
       </c>
-      <c r="F31" s="97" t="s">
+      <c r="F31" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="97" t="s">
+      <c r="H31" s="120">
+        <v>19.0</v>
+      </c>
+      <c r="I31" s="92"/>
+      <c r="J31" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="120">
-        <v>30.0</v>
-      </c>
-      <c r="I31" s="94"/>
-      <c r="J31" s="96" t="s">
+      <c r="K31" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="96" t="s">
+      <c r="L31" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97" t="s">
+      <c r="M31" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="98">
-        <v>33.0</v>
-      </c>
-      <c r="S31" s="99">
-        <v>39.0</v>
-      </c>
-      <c r="T31" s="100">
-        <v>72.0</v>
+      <c r="R31" s="96">
+        <v>19.0</v>
+      </c>
+      <c r="S31" s="97">
+        <v>6.0</v>
+      </c>
+      <c r="T31" s="98">
+        <v>36.0</v>
       </c>
       <c r="U31" s="64"/>
       <c r="V31" s="65"/>
-      <c r="W31" s="75">
+      <c r="W31" s="66">
         <v>1.0</v>
       </c>
-      <c r="X31" s="67">
+      <c r="X31" s="65">
         <v>2.0</v>
       </c>
       <c r="Y31" s="66">
-        <v>3.0</v>
-      </c>
-      <c r="Z31" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="AA31" s="107" t="s">
-        <v>66</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z31" s="67">
+        <v>2.0</v>
+      </c>
+      <c r="AA31" s="106" t="s">
+        <v>65</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -3271,7 +3200,7 @@
       <c r="AK31" s="9"/>
     </row>
     <row r="32" ht="57.0" customHeight="1">
-      <c r="A32" s="70"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -3290,24 +3219,24 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="64">
+      <c r="T32" s="70"/>
+      <c r="U32" s="74">
+        <v>4.0</v>
+      </c>
+      <c r="V32" s="122">
+        <v>5.0</v>
+      </c>
+      <c r="W32" s="108">
         <v>6.0</v>
       </c>
-      <c r="V32" s="75">
+      <c r="X32" s="122">
         <v>7.0</v>
       </c>
-      <c r="W32" s="67">
+      <c r="Y32" s="65">
         <v>8.0</v>
       </c>
-      <c r="X32" s="75">
+      <c r="Z32" s="75">
         <v>9.0</v>
-      </c>
-      <c r="Y32" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="Z32" s="76">
-        <v>11.0</v>
       </c>
       <c r="AA32" s="15"/>
       <c r="AB32" s="16"/>
@@ -3322,7 +3251,7 @@
       <c r="AK32" s="9"/>
     </row>
     <row r="33" ht="57.0" customHeight="1">
-      <c r="A33" s="70"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -3341,26 +3270,26 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="78">
+      <c r="T33" s="70"/>
+      <c r="U33" s="77">
+        <v>11.0</v>
+      </c>
+      <c r="V33" s="108">
+        <v>12.0</v>
+      </c>
+      <c r="W33" s="108">
         <v>13.0</v>
       </c>
-      <c r="V33" s="67">
+      <c r="X33" s="108">
         <v>14.0</v>
       </c>
-      <c r="W33" s="67">
+      <c r="Y33" s="65">
         <v>15.0</v>
       </c>
-      <c r="X33" s="65">
+      <c r="Z33" s="75">
         <v>16.0</v>
       </c>
-      <c r="Y33" s="65">
-        <v>17.0</v>
-      </c>
-      <c r="Z33" s="76">
-        <v>18.0</v>
-      </c>
-      <c r="AA33" s="122"/>
+      <c r="AA33" s="123"/>
       <c r="AB33" s="110"/>
       <c r="AC33" s="110"/>
       <c r="AD33" s="110"/>
@@ -3373,7 +3302,7 @@
       <c r="AK33" s="9"/>
     </row>
     <row r="34" ht="57.0" customHeight="1">
-      <c r="A34" s="70"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -3392,26 +3321,14 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="79">
-        <v>20.0</v>
-      </c>
-      <c r="V34" s="67">
-        <v>21.0</v>
-      </c>
-      <c r="W34" s="67">
-        <v>22.0</v>
-      </c>
-      <c r="X34" s="67">
-        <v>23.0</v>
-      </c>
-      <c r="Y34" s="65">
-        <v>24.0</v>
-      </c>
-      <c r="Z34" s="76">
-        <v>25.0</v>
-      </c>
-      <c r="AA34" s="73"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="72"/>
       <c r="AF34" s="112"/>
       <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
@@ -3420,7 +3337,7 @@
       <c r="AK34" s="9"/>
     </row>
     <row r="35" ht="57.0" customHeight="1">
-      <c r="A35" s="70"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -3439,21 +3356,13 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="79">
-        <v>27.0</v>
-      </c>
-      <c r="V35" s="67">
-        <v>28.0</v>
-      </c>
-      <c r="W35" s="67">
-        <v>29.0</v>
-      </c>
-      <c r="X35" s="65">
-        <v>30.0</v>
-      </c>
+      <c r="T35" s="70"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
       <c r="Y35" s="65"/>
-      <c r="Z35" s="76"/>
+      <c r="Z35" s="75"/>
       <c r="AA35" s="117"/>
       <c r="AB35" s="118"/>
       <c r="AC35" s="118"/>
@@ -3467,32 +3376,32 @@
       <c r="AK35" s="9"/>
     </row>
     <row r="36" ht="57.0" customHeight="1">
-      <c r="A36" s="81"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="83"/>
-      <c r="U36" s="104"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="90"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="88"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -3506,36 +3415,36 @@
       <c r="AK36" s="9"/>
     </row>
     <row r="37" ht="54.0" customHeight="1">
-      <c r="A37" s="123" t="s">
+      <c r="A37" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="126"/>
-      <c r="N37" s="126"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="126"/>
-      <c r="U37" s="126"/>
-      <c r="V37" s="126"/>
-      <c r="W37" s="126"/>
-      <c r="X37" s="126"/>
-      <c r="Y37" s="126"/>
-      <c r="Z37" s="127"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="127"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="127"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="127"/>
+      <c r="X37" s="127"/>
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="128"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -3549,34 +3458,34 @@
       <c r="AK37" s="9"/>
     </row>
     <row r="38" ht="52.5" customHeight="1">
-      <c r="A38" s="85"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="126"/>
-      <c r="N38" s="126"/>
-      <c r="O38" s="126"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="126"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="126"/>
-      <c r="U38" s="126"/>
-      <c r="V38" s="126"/>
-      <c r="W38" s="126"/>
-      <c r="X38" s="126"/>
-      <c r="Y38" s="126"/>
-      <c r="Z38" s="127"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="127"/>
+      <c r="O38" s="127"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="127"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="127"/>
+      <c r="T38" s="127"/>
+      <c r="U38" s="127"/>
+      <c r="V38" s="127"/>
+      <c r="W38" s="127"/>
+      <c r="X38" s="127"/>
+      <c r="Y38" s="127"/>
+      <c r="Z38" s="128"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -3590,32 +3499,32 @@
       <c r="AK38" s="9"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="130"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="130"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="130"/>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="132"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="132"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="134"/>
-      <c r="X39" s="134"/>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="133"/>
+      <c r="U39" s="135"/>
+      <c r="V39" s="135"/>
+      <c r="W39" s="135"/>
+      <c r="X39" s="135"/>
+      <c r="Y39" s="135"/>
+      <c r="Z39" s="135"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -3629,35 +3538,35 @@
       <c r="AK39" s="9"/>
     </row>
     <row r="40" ht="32.25" customHeight="1">
-      <c r="A40" s="135"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="137"/>
+      <c r="A40" s="136"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="138"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
-      <c r="Q40" s="138"/>
-      <c r="R40" s="139"/>
-      <c r="S40" s="140">
+      <c r="Q40" s="139"/>
+      <c r="R40" s="140"/>
+      <c r="S40" s="141">
         <f>SUM(T13:T36)</f>
-        <v>177</v>
-      </c>
-      <c r="T40" s="141"/>
+        <v>83</v>
+      </c>
+      <c r="T40" s="142"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
-      <c r="Z40" s="136"/>
+      <c r="Z40" s="137"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -3671,8 +3580,8 @@
       <c r="AK40" s="9"/>
     </row>
     <row r="41" ht="37.5" customHeight="1">
-      <c r="A41" s="142" t="s">
-        <v>70</v>
+      <c r="A41" s="143" t="s">
+        <v>69</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -3697,8 +3606,8 @@
       <c r="V41" s="26"/>
       <c r="W41" s="26"/>
       <c r="X41" s="26"/>
-      <c r="Y41" s="143"/>
-      <c r="Z41" s="144"/>
+      <c r="Y41" s="144"/>
+      <c r="Z41" s="145"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -3712,22 +3621,22 @@
       <c r="AK41" s="9"/>
     </row>
     <row r="42" ht="38.25" customHeight="1">
-      <c r="A42" s="145" t="s">
-        <v>71</v>
+      <c r="A42" s="146" t="s">
+        <v>70</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="147" t="s">
         <v>73</v>
-      </c>
-      <c r="I42" s="146" t="s">
-        <v>74</v>
       </c>
       <c r="J42" s="32" t="s">
         <v>31</v>
@@ -3739,25 +3648,25 @@
       <c r="O42" s="33"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="R42" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="R42" s="36" t="s">
+      <c r="S42" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="S42" s="36" t="s">
+      <c r="T42" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="T42" s="29" t="s">
+      <c r="U42" s="32" t="s">
         <v>78</v>
-      </c>
-      <c r="U42" s="32" t="s">
-        <v>79</v>
       </c>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
-      <c r="Z42" s="147"/>
+      <c r="Z42" s="148"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
@@ -3771,7 +3680,7 @@
       <c r="AK42" s="9"/>
     </row>
     <row r="43" ht="17.25" customHeight="1">
-      <c r="A43" s="148"/>
+      <c r="A43" s="149"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -3780,47 +3689,47 @@
       <c r="G43" s="17"/>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="149" t="s">
+      <c r="J43" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="149" t="s">
+      <c r="K43" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="149" t="s">
+      <c r="L43" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="M43" s="149" t="s">
+      <c r="M43" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="N43" s="149" t="s">
+      <c r="N43" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="O43" s="150" t="s">
+      <c r="O43" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="P43" s="150" t="s">
+      <c r="P43" s="151" t="s">
         <v>42</v>
       </c>
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
       <c r="S43" s="40"/>
       <c r="T43" s="40"/>
-      <c r="U43" s="149" t="s">
+      <c r="U43" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="V43" s="149" t="s">
+      <c r="V43" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="W43" s="149" t="s">
+      <c r="W43" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="X43" s="149" t="s">
+      <c r="X43" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="Y43" s="149" t="s">
+      <c r="Y43" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="Z43" s="151" t="s">
+      <c r="Z43" s="152" t="s">
         <v>41</v>
       </c>
       <c r="AA43" s="9"/>
@@ -3836,42 +3745,42 @@
       <c r="AK43" s="9"/>
     </row>
     <row r="44" ht="17.25" customHeight="1">
-      <c r="A44" s="152"/>
+      <c r="A44" s="153"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="152"/>
+      <c r="F44" s="153"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="155"/>
-      <c r="K44" s="156"/>
-      <c r="L44" s="155"/>
-      <c r="M44" s="155"/>
-      <c r="N44" s="155"/>
-      <c r="O44" s="155"/>
-      <c r="P44" s="157"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="158"/>
-      <c r="S44" s="158"/>
-      <c r="T44" s="159"/>
-      <c r="U44" s="160">
+      <c r="H44" s="154"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="156"/>
+      <c r="P44" s="158"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="159"/>
+      <c r="S44" s="159"/>
+      <c r="T44" s="160"/>
+      <c r="U44" s="64">
         <v>2.0</v>
       </c>
-      <c r="V44" s="161">
+      <c r="V44" s="65">
         <v>3.0</v>
       </c>
-      <c r="W44" s="66">
+      <c r="W44" s="161">
         <v>4.0</v>
       </c>
-      <c r="X44" s="161">
+      <c r="X44" s="65">
         <v>5.0</v>
       </c>
-      <c r="Y44" s="162">
+      <c r="Y44" s="66">
         <v>6.0</v>
       </c>
-      <c r="Z44" s="163">
+      <c r="Z44" s="67">
         <v>7.0</v>
       </c>
       <c r="AA44" s="9"/>
@@ -3903,23 +3812,23 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="160">
+      <c r="T45" s="70"/>
+      <c r="U45" s="64">
         <v>9.0</v>
       </c>
-      <c r="V45" s="162">
+      <c r="V45" s="66">
         <v>10.0</v>
       </c>
-      <c r="W45" s="65">
+      <c r="W45" s="162">
         <v>11.0</v>
       </c>
-      <c r="X45" s="162">
+      <c r="X45" s="66">
         <v>12.0</v>
       </c>
-      <c r="Y45" s="161">
+      <c r="Y45" s="65">
         <v>13.0</v>
       </c>
-      <c r="Z45" s="164">
+      <c r="Z45" s="75">
         <v>14.0</v>
       </c>
       <c r="AA45" s="9"/>
@@ -3951,23 +3860,23 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="160">
+      <c r="T46" s="70"/>
+      <c r="U46" s="64">
         <v>16.0</v>
       </c>
-      <c r="V46" s="161">
+      <c r="V46" s="65">
         <v>17.0</v>
       </c>
-      <c r="W46" s="65">
+      <c r="W46" s="162">
         <v>18.0</v>
       </c>
-      <c r="X46" s="161">
+      <c r="X46" s="65">
         <v>19.0</v>
       </c>
-      <c r="Y46" s="161">
+      <c r="Y46" s="65">
         <v>20.0</v>
       </c>
-      <c r="Z46" s="164">
+      <c r="Z46" s="75">
         <v>21.0</v>
       </c>
       <c r="AA46" s="9"/>
@@ -3999,23 +3908,23 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="160">
+      <c r="T47" s="70"/>
+      <c r="U47" s="64">
         <v>23.0</v>
       </c>
-      <c r="V47" s="161">
+      <c r="V47" s="65">
         <v>24.0</v>
       </c>
-      <c r="W47" s="65">
+      <c r="W47" s="162">
         <v>25.0</v>
       </c>
-      <c r="X47" s="161">
+      <c r="X47" s="65">
         <v>26.0</v>
       </c>
-      <c r="Y47" s="161">
+      <c r="Y47" s="65">
         <v>27.0</v>
       </c>
-      <c r="Z47" s="164">
+      <c r="Z47" s="75">
         <v>28.0</v>
       </c>
       <c r="AA47" s="9"/>
@@ -4047,17 +3956,17 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="160">
+      <c r="T48" s="70"/>
+      <c r="U48" s="64">
         <v>30.0</v>
       </c>
-      <c r="V48" s="161">
+      <c r="V48" s="65">
         <v>31.0</v>
       </c>
-      <c r="W48" s="65"/>
-      <c r="X48" s="161"/>
-      <c r="Y48" s="161"/>
-      <c r="Z48" s="164"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="75"/>
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
@@ -4071,32 +3980,32 @@
       <c r="AK48" s="9"/>
     </row>
     <row r="49" ht="17.25" customHeight="1">
-      <c r="A49" s="103"/>
-      <c r="B49" s="128"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="83"/>
-      <c r="U49" s="104"/>
-      <c r="V49" s="89"/>
-      <c r="W49" s="89"/>
-      <c r="X49" s="89"/>
-      <c r="Y49" s="89"/>
-      <c r="Z49" s="90"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="103"/>
+      <c r="V49" s="87"/>
+      <c r="W49" s="87"/>
+      <c r="X49" s="87"/>
+      <c r="Y49" s="87"/>
+      <c r="Z49" s="88"/>
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
@@ -4110,42 +4019,42 @@
       <c r="AK49" s="9"/>
     </row>
     <row r="50" ht="17.25" customHeight="1">
-      <c r="A50" s="165"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="154"/>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
-      <c r="M50" s="154"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="167"/>
-      <c r="Q50" s="168"/>
-      <c r="R50" s="169"/>
-      <c r="S50" s="170"/>
-      <c r="T50" s="171"/>
-      <c r="U50" s="160">
+      <c r="A50" s="163"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="165"/>
+      <c r="L50" s="165"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
+      <c r="O50" s="155"/>
+      <c r="P50" s="165"/>
+      <c r="Q50" s="166"/>
+      <c r="R50" s="167"/>
+      <c r="S50" s="168"/>
+      <c r="T50" s="169"/>
+      <c r="U50" s="64">
         <v>2.0</v>
       </c>
-      <c r="V50" s="161">
+      <c r="V50" s="65">
         <v>3.0</v>
       </c>
-      <c r="W50" s="66">
+      <c r="W50" s="161">
         <v>4.0</v>
       </c>
-      <c r="X50" s="161">
+      <c r="X50" s="65">
         <v>5.0</v>
       </c>
-      <c r="Y50" s="162">
+      <c r="Y50" s="66">
         <v>6.0</v>
       </c>
-      <c r="Z50" s="163">
+      <c r="Z50" s="67">
         <v>7.0</v>
       </c>
       <c r="AA50" s="9"/>
@@ -4161,7 +4070,7 @@
       <c r="AK50" s="9"/>
     </row>
     <row r="51" ht="17.25" customHeight="1">
-      <c r="A51" s="73"/>
+      <c r="A51" s="72"/>
       <c r="E51" s="12"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
@@ -4177,23 +4086,23 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="160">
+      <c r="T51" s="70"/>
+      <c r="U51" s="64">
         <v>9.0</v>
       </c>
-      <c r="V51" s="162">
+      <c r="V51" s="66">
         <v>10.0</v>
       </c>
-      <c r="W51" s="65">
+      <c r="W51" s="162">
         <v>11.0</v>
       </c>
-      <c r="X51" s="162">
+      <c r="X51" s="66">
         <v>12.0</v>
       </c>
-      <c r="Y51" s="161">
+      <c r="Y51" s="65">
         <v>13.0</v>
       </c>
-      <c r="Z51" s="164">
+      <c r="Z51" s="75">
         <v>14.0</v>
       </c>
       <c r="AA51" s="9"/>
@@ -4209,7 +4118,7 @@
       <c r="AK51" s="9"/>
     </row>
     <row r="52" ht="17.25" customHeight="1">
-      <c r="A52" s="73"/>
+      <c r="A52" s="72"/>
       <c r="E52" s="12"/>
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
@@ -4225,23 +4134,23 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="160">
+      <c r="T52" s="70"/>
+      <c r="U52" s="64">
         <v>16.0</v>
       </c>
-      <c r="V52" s="161">
+      <c r="V52" s="65">
         <v>17.0</v>
       </c>
-      <c r="W52" s="65">
+      <c r="W52" s="162">
         <v>18.0</v>
       </c>
-      <c r="X52" s="161">
+      <c r="X52" s="65">
         <v>19.0</v>
       </c>
-      <c r="Y52" s="161">
+      <c r="Y52" s="65">
         <v>20.0</v>
       </c>
-      <c r="Z52" s="164">
+      <c r="Z52" s="75">
         <v>21.0</v>
       </c>
       <c r="AA52" s="9"/>
@@ -4257,7 +4166,7 @@
       <c r="AK52" s="9"/>
     </row>
     <row r="53" ht="17.25" customHeight="1">
-      <c r="A53" s="73"/>
+      <c r="A53" s="72"/>
       <c r="E53" s="12"/>
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
@@ -4273,23 +4182,23 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="160">
+      <c r="T53" s="70"/>
+      <c r="U53" s="64">
         <v>23.0</v>
       </c>
-      <c r="V53" s="161">
+      <c r="V53" s="65">
         <v>24.0</v>
       </c>
-      <c r="W53" s="65">
+      <c r="W53" s="162">
         <v>25.0</v>
       </c>
-      <c r="X53" s="161">
+      <c r="X53" s="65">
         <v>26.0</v>
       </c>
-      <c r="Y53" s="161">
+      <c r="Y53" s="65">
         <v>27.0</v>
       </c>
-      <c r="Z53" s="164">
+      <c r="Z53" s="75">
         <v>28.0</v>
       </c>
       <c r="AA53" s="9"/>
@@ -4305,7 +4214,7 @@
       <c r="AK53" s="9"/>
     </row>
     <row r="54" ht="17.25" customHeight="1">
-      <c r="A54" s="73"/>
+      <c r="A54" s="72"/>
       <c r="E54" s="12"/>
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
@@ -4321,17 +4230,17 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="160">
+      <c r="T54" s="70"/>
+      <c r="U54" s="64">
         <v>30.0</v>
       </c>
-      <c r="V54" s="161">
+      <c r="V54" s="65">
         <v>31.0</v>
       </c>
-      <c r="W54" s="65"/>
-      <c r="X54" s="161"/>
-      <c r="Y54" s="161"/>
-      <c r="Z54" s="164"/>
+      <c r="W54" s="162"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="65"/>
+      <c r="Z54" s="75"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
@@ -4345,32 +4254,32 @@
       <c r="AK54" s="9"/>
     </row>
     <row r="55" ht="17.25" customHeight="1">
-      <c r="A55" s="85"/>
-      <c r="B55" s="128"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
-      <c r="Q55" s="82"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="104"/>
-      <c r="V55" s="89"/>
-      <c r="W55" s="89"/>
-      <c r="X55" s="89"/>
-      <c r="Y55" s="89"/>
-      <c r="Z55" s="90"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="103"/>
+      <c r="V55" s="87"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="87"/>
+      <c r="Y55" s="87"/>
+      <c r="Z55" s="88"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
@@ -4384,42 +4293,42 @@
       <c r="AK55" s="9"/>
     </row>
     <row r="56" ht="17.25" customHeight="1">
-      <c r="A56" s="166"/>
-      <c r="B56" s="124"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="166"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="154"/>
-      <c r="K56" s="167"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="154"/>
-      <c r="N56" s="167"/>
-      <c r="O56" s="167"/>
-      <c r="P56" s="167"/>
-      <c r="Q56" s="168"/>
-      <c r="R56" s="169"/>
-      <c r="S56" s="170"/>
-      <c r="T56" s="171"/>
-      <c r="U56" s="160">
+      <c r="A56" s="164"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="165"/>
+      <c r="P56" s="165"/>
+      <c r="Q56" s="166"/>
+      <c r="R56" s="167"/>
+      <c r="S56" s="168"/>
+      <c r="T56" s="169"/>
+      <c r="U56" s="64">
         <v>2.0</v>
       </c>
-      <c r="V56" s="161">
+      <c r="V56" s="65">
         <v>3.0</v>
       </c>
-      <c r="W56" s="66">
+      <c r="W56" s="161">
         <v>4.0</v>
       </c>
-      <c r="X56" s="161">
+      <c r="X56" s="65">
         <v>5.0</v>
       </c>
-      <c r="Y56" s="162">
+      <c r="Y56" s="66">
         <v>6.0</v>
       </c>
-      <c r="Z56" s="163">
+      <c r="Z56" s="67">
         <v>7.0</v>
       </c>
       <c r="AA56" s="9"/>
@@ -4451,23 +4360,23 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="160">
+      <c r="T57" s="70"/>
+      <c r="U57" s="64">
         <v>9.0</v>
       </c>
-      <c r="V57" s="162">
+      <c r="V57" s="66">
         <v>10.0</v>
       </c>
-      <c r="W57" s="65">
+      <c r="W57" s="162">
         <v>11.0</v>
       </c>
-      <c r="X57" s="162">
+      <c r="X57" s="66">
         <v>12.0</v>
       </c>
-      <c r="Y57" s="161">
+      <c r="Y57" s="65">
         <v>13.0</v>
       </c>
-      <c r="Z57" s="164">
+      <c r="Z57" s="75">
         <v>14.0</v>
       </c>
       <c r="AA57" s="9"/>
@@ -4499,23 +4408,23 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="160">
+      <c r="T58" s="70"/>
+      <c r="U58" s="64">
         <v>16.0</v>
       </c>
-      <c r="V58" s="161">
+      <c r="V58" s="65">
         <v>17.0</v>
       </c>
-      <c r="W58" s="65">
+      <c r="W58" s="162">
         <v>18.0</v>
       </c>
-      <c r="X58" s="161">
+      <c r="X58" s="65">
         <v>19.0</v>
       </c>
-      <c r="Y58" s="161">
+      <c r="Y58" s="65">
         <v>20.0</v>
       </c>
-      <c r="Z58" s="164">
+      <c r="Z58" s="75">
         <v>21.0</v>
       </c>
       <c r="AA58" s="9"/>
@@ -4547,23 +4456,23 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="160">
+      <c r="T59" s="70"/>
+      <c r="U59" s="64">
         <v>23.0</v>
       </c>
-      <c r="V59" s="161">
+      <c r="V59" s="65">
         <v>24.0</v>
       </c>
-      <c r="W59" s="65">
+      <c r="W59" s="162">
         <v>25.0</v>
       </c>
-      <c r="X59" s="161">
+      <c r="X59" s="65">
         <v>26.0</v>
       </c>
-      <c r="Y59" s="161">
+      <c r="Y59" s="65">
         <v>27.0</v>
       </c>
-      <c r="Z59" s="164">
+      <c r="Z59" s="75">
         <v>28.0</v>
       </c>
       <c r="AA59" s="9"/>
@@ -4595,17 +4504,17 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="160">
+      <c r="T60" s="70"/>
+      <c r="U60" s="64">
         <v>30.0</v>
       </c>
-      <c r="V60" s="161">
+      <c r="V60" s="65">
         <v>31.0</v>
       </c>
-      <c r="W60" s="65"/>
-      <c r="X60" s="161"/>
-      <c r="Y60" s="161"/>
-      <c r="Z60" s="164"/>
+      <c r="W60" s="162"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="75"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
@@ -4619,32 +4528,32 @@
       <c r="AK60" s="9"/>
     </row>
     <row r="61" ht="17.25" customHeight="1">
-      <c r="A61" s="103"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82"/>
-      <c r="Q61" s="82"/>
-      <c r="R61" s="82"/>
-      <c r="S61" s="82"/>
-      <c r="T61" s="83"/>
-      <c r="U61" s="104"/>
-      <c r="V61" s="89"/>
-      <c r="W61" s="89"/>
-      <c r="X61" s="89"/>
-      <c r="Y61" s="89"/>
-      <c r="Z61" s="90"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="81"/>
+      <c r="U61" s="103"/>
+      <c r="V61" s="87"/>
+      <c r="W61" s="87"/>
+      <c r="X61" s="87"/>
+      <c r="Y61" s="87"/>
+      <c r="Z61" s="88"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
@@ -4658,33 +4567,33 @@
       <c r="AK61" s="9"/>
     </row>
     <row r="62" ht="33.75" customHeight="1">
-      <c r="A62" s="172"/>
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="173"/>
-      <c r="J62" s="174" t="s">
-        <v>80</v>
-      </c>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
-      <c r="M62" s="126"/>
-      <c r="N62" s="126"/>
-      <c r="O62" s="126"/>
-      <c r="P62" s="126"/>
-      <c r="Q62" s="126"/>
-      <c r="R62" s="127"/>
-      <c r="T62" s="175"/>
-      <c r="U62" s="176"/>
-      <c r="V62" s="124"/>
-      <c r="W62" s="124"/>
-      <c r="X62" s="124"/>
-      <c r="Y62" s="124"/>
-      <c r="Z62" s="124"/>
+      <c r="A62" s="170"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="171"/>
+      <c r="J62" s="172" t="s">
+        <v>79</v>
+      </c>
+      <c r="K62" s="127"/>
+      <c r="L62" s="127"/>
+      <c r="M62" s="127"/>
+      <c r="N62" s="127"/>
+      <c r="O62" s="127"/>
+      <c r="P62" s="127"/>
+      <c r="Q62" s="127"/>
+      <c r="R62" s="128"/>
+      <c r="T62" s="173"/>
+      <c r="U62" s="174"/>
+      <c r="V62" s="125"/>
+      <c r="W62" s="125"/>
+      <c r="X62" s="125"/>
+      <c r="Y62" s="125"/>
+      <c r="Z62" s="125"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -6492,484 +6401,484 @@
       <c r="AK108" s="9"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="177"/>
-      <c r="B109" s="177"/>
-      <c r="C109" s="177"/>
-      <c r="D109" s="177"/>
-      <c r="E109" s="177"/>
-      <c r="F109" s="177"/>
-      <c r="G109" s="177"/>
-      <c r="H109" s="177"/>
-      <c r="I109" s="177"/>
-      <c r="J109" s="177"/>
-      <c r="K109" s="177"/>
-      <c r="L109" s="177"/>
-      <c r="M109" s="177"/>
-      <c r="N109" s="177"/>
-      <c r="O109" s="177"/>
-      <c r="P109" s="177"/>
-      <c r="Q109" s="177"/>
-      <c r="R109" s="177"/>
-      <c r="S109" s="177"/>
-      <c r="T109" s="177"/>
-      <c r="U109" s="177"/>
-      <c r="V109" s="177"/>
-      <c r="W109" s="177"/>
-      <c r="X109" s="177"/>
-      <c r="Y109" s="177"/>
-      <c r="Z109" s="177"/>
-      <c r="AA109" s="177"/>
-      <c r="AB109" s="177"/>
-      <c r="AC109" s="177"/>
-      <c r="AD109" s="177"/>
-      <c r="AE109" s="177"/>
-      <c r="AF109" s="177"/>
-      <c r="AG109" s="177"/>
-      <c r="AH109" s="177"/>
-      <c r="AI109" s="177"/>
-      <c r="AJ109" s="177"/>
-      <c r="AK109" s="177"/>
+      <c r="A109" s="175"/>
+      <c r="B109" s="175"/>
+      <c r="C109" s="175"/>
+      <c r="D109" s="175"/>
+      <c r="E109" s="175"/>
+      <c r="F109" s="175"/>
+      <c r="G109" s="175"/>
+      <c r="H109" s="175"/>
+      <c r="I109" s="175"/>
+      <c r="J109" s="175"/>
+      <c r="K109" s="175"/>
+      <c r="L109" s="175"/>
+      <c r="M109" s="175"/>
+      <c r="N109" s="175"/>
+      <c r="O109" s="175"/>
+      <c r="P109" s="175"/>
+      <c r="Q109" s="175"/>
+      <c r="R109" s="175"/>
+      <c r="S109" s="175"/>
+      <c r="T109" s="175"/>
+      <c r="U109" s="175"/>
+      <c r="V109" s="175"/>
+      <c r="W109" s="175"/>
+      <c r="X109" s="175"/>
+      <c r="Y109" s="175"/>
+      <c r="Z109" s="175"/>
+      <c r="AA109" s="175"/>
+      <c r="AB109" s="175"/>
+      <c r="AC109" s="175"/>
+      <c r="AD109" s="175"/>
+      <c r="AE109" s="175"/>
+      <c r="AF109" s="175"/>
+      <c r="AG109" s="175"/>
+      <c r="AH109" s="175"/>
+      <c r="AI109" s="175"/>
+      <c r="AJ109" s="175"/>
+      <c r="AK109" s="175"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="177"/>
-      <c r="B110" s="177"/>
-      <c r="C110" s="177"/>
-      <c r="D110" s="177"/>
-      <c r="E110" s="177"/>
-      <c r="F110" s="177"/>
-      <c r="G110" s="177"/>
-      <c r="H110" s="177"/>
-      <c r="I110" s="177"/>
-      <c r="J110" s="177"/>
-      <c r="K110" s="177"/>
-      <c r="L110" s="177"/>
-      <c r="M110" s="177"/>
-      <c r="N110" s="177"/>
-      <c r="O110" s="177"/>
-      <c r="P110" s="177"/>
-      <c r="Q110" s="177"/>
-      <c r="R110" s="177"/>
-      <c r="S110" s="177"/>
-      <c r="T110" s="177"/>
-      <c r="U110" s="177"/>
-      <c r="V110" s="177"/>
-      <c r="W110" s="177"/>
-      <c r="X110" s="177"/>
-      <c r="Y110" s="177"/>
-      <c r="Z110" s="177"/>
-      <c r="AA110" s="177"/>
-      <c r="AB110" s="177"/>
-      <c r="AC110" s="177"/>
-      <c r="AD110" s="177"/>
-      <c r="AE110" s="177"/>
-      <c r="AF110" s="177"/>
-      <c r="AG110" s="177"/>
-      <c r="AH110" s="177"/>
-      <c r="AI110" s="177"/>
-      <c r="AJ110" s="177"/>
-      <c r="AK110" s="177"/>
+      <c r="A110" s="175"/>
+      <c r="B110" s="175"/>
+      <c r="C110" s="175"/>
+      <c r="D110" s="175"/>
+      <c r="E110" s="175"/>
+      <c r="F110" s="175"/>
+      <c r="G110" s="175"/>
+      <c r="H110" s="175"/>
+      <c r="I110" s="175"/>
+      <c r="J110" s="175"/>
+      <c r="K110" s="175"/>
+      <c r="L110" s="175"/>
+      <c r="M110" s="175"/>
+      <c r="N110" s="175"/>
+      <c r="O110" s="175"/>
+      <c r="P110" s="175"/>
+      <c r="Q110" s="175"/>
+      <c r="R110" s="175"/>
+      <c r="S110" s="175"/>
+      <c r="T110" s="175"/>
+      <c r="U110" s="175"/>
+      <c r="V110" s="175"/>
+      <c r="W110" s="175"/>
+      <c r="X110" s="175"/>
+      <c r="Y110" s="175"/>
+      <c r="Z110" s="175"/>
+      <c r="AA110" s="175"/>
+      <c r="AB110" s="175"/>
+      <c r="AC110" s="175"/>
+      <c r="AD110" s="175"/>
+      <c r="AE110" s="175"/>
+      <c r="AF110" s="175"/>
+      <c r="AG110" s="175"/>
+      <c r="AH110" s="175"/>
+      <c r="AI110" s="175"/>
+      <c r="AJ110" s="175"/>
+      <c r="AK110" s="175"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="177"/>
-      <c r="B111" s="177"/>
-      <c r="C111" s="177"/>
-      <c r="D111" s="177"/>
-      <c r="E111" s="177"/>
-      <c r="F111" s="177"/>
-      <c r="G111" s="177"/>
-      <c r="H111" s="177"/>
-      <c r="I111" s="177"/>
-      <c r="J111" s="177"/>
-      <c r="K111" s="177"/>
-      <c r="L111" s="177"/>
-      <c r="M111" s="177"/>
-      <c r="N111" s="177"/>
-      <c r="O111" s="177"/>
-      <c r="P111" s="177"/>
-      <c r="Q111" s="177"/>
-      <c r="R111" s="177"/>
-      <c r="S111" s="177"/>
-      <c r="T111" s="177"/>
-      <c r="U111" s="177"/>
-      <c r="V111" s="177"/>
-      <c r="W111" s="177"/>
-      <c r="X111" s="177"/>
-      <c r="Y111" s="177"/>
-      <c r="Z111" s="177"/>
-      <c r="AA111" s="177"/>
-      <c r="AB111" s="177"/>
-      <c r="AC111" s="177"/>
-      <c r="AD111" s="177"/>
-      <c r="AE111" s="177"/>
-      <c r="AF111" s="177"/>
-      <c r="AG111" s="177"/>
-      <c r="AH111" s="177"/>
-      <c r="AI111" s="177"/>
-      <c r="AJ111" s="177"/>
-      <c r="AK111" s="177"/>
+      <c r="A111" s="175"/>
+      <c r="B111" s="175"/>
+      <c r="C111" s="175"/>
+      <c r="D111" s="175"/>
+      <c r="E111" s="175"/>
+      <c r="F111" s="175"/>
+      <c r="G111" s="175"/>
+      <c r="H111" s="175"/>
+      <c r="I111" s="175"/>
+      <c r="J111" s="175"/>
+      <c r="K111" s="175"/>
+      <c r="L111" s="175"/>
+      <c r="M111" s="175"/>
+      <c r="N111" s="175"/>
+      <c r="O111" s="175"/>
+      <c r="P111" s="175"/>
+      <c r="Q111" s="175"/>
+      <c r="R111" s="175"/>
+      <c r="S111" s="175"/>
+      <c r="T111" s="175"/>
+      <c r="U111" s="175"/>
+      <c r="V111" s="175"/>
+      <c r="W111" s="175"/>
+      <c r="X111" s="175"/>
+      <c r="Y111" s="175"/>
+      <c r="Z111" s="175"/>
+      <c r="AA111" s="175"/>
+      <c r="AB111" s="175"/>
+      <c r="AC111" s="175"/>
+      <c r="AD111" s="175"/>
+      <c r="AE111" s="175"/>
+      <c r="AF111" s="175"/>
+      <c r="AG111" s="175"/>
+      <c r="AH111" s="175"/>
+      <c r="AI111" s="175"/>
+      <c r="AJ111" s="175"/>
+      <c r="AK111" s="175"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="177"/>
-      <c r="B112" s="177"/>
-      <c r="C112" s="177"/>
-      <c r="D112" s="177"/>
-      <c r="E112" s="177"/>
-      <c r="F112" s="177"/>
-      <c r="G112" s="177"/>
-      <c r="H112" s="177"/>
-      <c r="I112" s="177"/>
-      <c r="J112" s="177"/>
-      <c r="K112" s="177"/>
-      <c r="L112" s="177"/>
-      <c r="M112" s="177"/>
-      <c r="N112" s="177"/>
-      <c r="O112" s="177"/>
-      <c r="P112" s="177"/>
-      <c r="Q112" s="177"/>
-      <c r="R112" s="177"/>
-      <c r="S112" s="177"/>
-      <c r="T112" s="177"/>
-      <c r="U112" s="177"/>
-      <c r="V112" s="177"/>
-      <c r="W112" s="177"/>
-      <c r="X112" s="177"/>
-      <c r="Y112" s="177"/>
-      <c r="Z112" s="177"/>
-      <c r="AA112" s="177"/>
-      <c r="AB112" s="177"/>
-      <c r="AC112" s="177"/>
-      <c r="AD112" s="177"/>
-      <c r="AE112" s="177"/>
-      <c r="AF112" s="177"/>
-      <c r="AG112" s="177"/>
-      <c r="AH112" s="177"/>
-      <c r="AI112" s="177"/>
-      <c r="AJ112" s="177"/>
-      <c r="AK112" s="177"/>
+      <c r="A112" s="175"/>
+      <c r="B112" s="175"/>
+      <c r="C112" s="175"/>
+      <c r="D112" s="175"/>
+      <c r="E112" s="175"/>
+      <c r="F112" s="175"/>
+      <c r="G112" s="175"/>
+      <c r="H112" s="175"/>
+      <c r="I112" s="175"/>
+      <c r="J112" s="175"/>
+      <c r="K112" s="175"/>
+      <c r="L112" s="175"/>
+      <c r="M112" s="175"/>
+      <c r="N112" s="175"/>
+      <c r="O112" s="175"/>
+      <c r="P112" s="175"/>
+      <c r="Q112" s="175"/>
+      <c r="R112" s="175"/>
+      <c r="S112" s="175"/>
+      <c r="T112" s="175"/>
+      <c r="U112" s="175"/>
+      <c r="V112" s="175"/>
+      <c r="W112" s="175"/>
+      <c r="X112" s="175"/>
+      <c r="Y112" s="175"/>
+      <c r="Z112" s="175"/>
+      <c r="AA112" s="175"/>
+      <c r="AB112" s="175"/>
+      <c r="AC112" s="175"/>
+      <c r="AD112" s="175"/>
+      <c r="AE112" s="175"/>
+      <c r="AF112" s="175"/>
+      <c r="AG112" s="175"/>
+      <c r="AH112" s="175"/>
+      <c r="AI112" s="175"/>
+      <c r="AJ112" s="175"/>
+      <c r="AK112" s="175"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="177"/>
-      <c r="B113" s="177"/>
-      <c r="C113" s="177"/>
-      <c r="D113" s="177"/>
-      <c r="E113" s="177"/>
-      <c r="F113" s="177"/>
-      <c r="G113" s="177"/>
-      <c r="H113" s="177"/>
-      <c r="I113" s="177"/>
-      <c r="J113" s="177"/>
-      <c r="K113" s="177"/>
-      <c r="L113" s="177"/>
-      <c r="M113" s="177"/>
-      <c r="N113" s="177"/>
-      <c r="O113" s="177"/>
-      <c r="P113" s="177"/>
-      <c r="Q113" s="177"/>
-      <c r="R113" s="177"/>
-      <c r="S113" s="177"/>
-      <c r="T113" s="177"/>
-      <c r="U113" s="177"/>
-      <c r="V113" s="177"/>
-      <c r="W113" s="177"/>
-      <c r="X113" s="177"/>
-      <c r="Y113" s="177"/>
-      <c r="Z113" s="177"/>
-      <c r="AA113" s="177"/>
-      <c r="AB113" s="177"/>
-      <c r="AC113" s="177"/>
-      <c r="AD113" s="177"/>
-      <c r="AE113" s="177"/>
-      <c r="AF113" s="177"/>
-      <c r="AG113" s="177"/>
-      <c r="AH113" s="177"/>
-      <c r="AI113" s="177"/>
-      <c r="AJ113" s="177"/>
-      <c r="AK113" s="177"/>
+      <c r="A113" s="175"/>
+      <c r="B113" s="175"/>
+      <c r="C113" s="175"/>
+      <c r="D113" s="175"/>
+      <c r="E113" s="175"/>
+      <c r="F113" s="175"/>
+      <c r="G113" s="175"/>
+      <c r="H113" s="175"/>
+      <c r="I113" s="175"/>
+      <c r="J113" s="175"/>
+      <c r="K113" s="175"/>
+      <c r="L113" s="175"/>
+      <c r="M113" s="175"/>
+      <c r="N113" s="175"/>
+      <c r="O113" s="175"/>
+      <c r="P113" s="175"/>
+      <c r="Q113" s="175"/>
+      <c r="R113" s="175"/>
+      <c r="S113" s="175"/>
+      <c r="T113" s="175"/>
+      <c r="U113" s="175"/>
+      <c r="V113" s="175"/>
+      <c r="W113" s="175"/>
+      <c r="X113" s="175"/>
+      <c r="Y113" s="175"/>
+      <c r="Z113" s="175"/>
+      <c r="AA113" s="175"/>
+      <c r="AB113" s="175"/>
+      <c r="AC113" s="175"/>
+      <c r="AD113" s="175"/>
+      <c r="AE113" s="175"/>
+      <c r="AF113" s="175"/>
+      <c r="AG113" s="175"/>
+      <c r="AH113" s="175"/>
+      <c r="AI113" s="175"/>
+      <c r="AJ113" s="175"/>
+      <c r="AK113" s="175"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="177"/>
-      <c r="B114" s="177"/>
-      <c r="C114" s="177"/>
-      <c r="D114" s="177"/>
-      <c r="E114" s="177"/>
-      <c r="F114" s="177"/>
-      <c r="G114" s="177"/>
-      <c r="H114" s="177"/>
-      <c r="I114" s="177"/>
-      <c r="J114" s="177"/>
-      <c r="K114" s="177"/>
-      <c r="L114" s="177"/>
-      <c r="M114" s="177"/>
-      <c r="N114" s="177"/>
-      <c r="O114" s="177"/>
-      <c r="P114" s="177"/>
-      <c r="Q114" s="177"/>
-      <c r="R114" s="177"/>
-      <c r="S114" s="177"/>
-      <c r="T114" s="177"/>
-      <c r="U114" s="177"/>
-      <c r="V114" s="177"/>
-      <c r="W114" s="177"/>
-      <c r="X114" s="177"/>
-      <c r="Y114" s="177"/>
-      <c r="Z114" s="177"/>
-      <c r="AA114" s="177"/>
-      <c r="AB114" s="177"/>
-      <c r="AC114" s="177"/>
-      <c r="AD114" s="177"/>
-      <c r="AE114" s="177"/>
-      <c r="AF114" s="177"/>
-      <c r="AG114" s="177"/>
-      <c r="AH114" s="177"/>
-      <c r="AI114" s="177"/>
-      <c r="AJ114" s="177"/>
-      <c r="AK114" s="177"/>
+      <c r="A114" s="175"/>
+      <c r="B114" s="175"/>
+      <c r="C114" s="175"/>
+      <c r="D114" s="175"/>
+      <c r="E114" s="175"/>
+      <c r="F114" s="175"/>
+      <c r="G114" s="175"/>
+      <c r="H114" s="175"/>
+      <c r="I114" s="175"/>
+      <c r="J114" s="175"/>
+      <c r="K114" s="175"/>
+      <c r="L114" s="175"/>
+      <c r="M114" s="175"/>
+      <c r="N114" s="175"/>
+      <c r="O114" s="175"/>
+      <c r="P114" s="175"/>
+      <c r="Q114" s="175"/>
+      <c r="R114" s="175"/>
+      <c r="S114" s="175"/>
+      <c r="T114" s="175"/>
+      <c r="U114" s="175"/>
+      <c r="V114" s="175"/>
+      <c r="W114" s="175"/>
+      <c r="X114" s="175"/>
+      <c r="Y114" s="175"/>
+      <c r="Z114" s="175"/>
+      <c r="AA114" s="175"/>
+      <c r="AB114" s="175"/>
+      <c r="AC114" s="175"/>
+      <c r="AD114" s="175"/>
+      <c r="AE114" s="175"/>
+      <c r="AF114" s="175"/>
+      <c r="AG114" s="175"/>
+      <c r="AH114" s="175"/>
+      <c r="AI114" s="175"/>
+      <c r="AJ114" s="175"/>
+      <c r="AK114" s="175"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="177"/>
-      <c r="B115" s="177"/>
-      <c r="C115" s="177"/>
-      <c r="D115" s="177"/>
-      <c r="E115" s="177"/>
-      <c r="F115" s="177"/>
-      <c r="G115" s="177"/>
-      <c r="H115" s="177"/>
-      <c r="I115" s="177"/>
-      <c r="J115" s="177"/>
-      <c r="K115" s="177"/>
-      <c r="L115" s="177"/>
-      <c r="M115" s="177"/>
-      <c r="N115" s="177"/>
-      <c r="O115" s="177"/>
-      <c r="P115" s="177"/>
-      <c r="Q115" s="177"/>
-      <c r="R115" s="177"/>
-      <c r="S115" s="177"/>
-      <c r="T115" s="177"/>
-      <c r="U115" s="177"/>
-      <c r="V115" s="177"/>
-      <c r="W115" s="177"/>
-      <c r="X115" s="177"/>
-      <c r="Y115" s="177"/>
-      <c r="Z115" s="177"/>
-      <c r="AA115" s="177"/>
-      <c r="AB115" s="177"/>
-      <c r="AC115" s="177"/>
-      <c r="AD115" s="177"/>
-      <c r="AE115" s="177"/>
-      <c r="AF115" s="177"/>
-      <c r="AG115" s="177"/>
-      <c r="AH115" s="177"/>
-      <c r="AI115" s="177"/>
-      <c r="AJ115" s="177"/>
-      <c r="AK115" s="177"/>
+      <c r="A115" s="175"/>
+      <c r="B115" s="175"/>
+      <c r="C115" s="175"/>
+      <c r="D115" s="175"/>
+      <c r="E115" s="175"/>
+      <c r="F115" s="175"/>
+      <c r="G115" s="175"/>
+      <c r="H115" s="175"/>
+      <c r="I115" s="175"/>
+      <c r="J115" s="175"/>
+      <c r="K115" s="175"/>
+      <c r="L115" s="175"/>
+      <c r="M115" s="175"/>
+      <c r="N115" s="175"/>
+      <c r="O115" s="175"/>
+      <c r="P115" s="175"/>
+      <c r="Q115" s="175"/>
+      <c r="R115" s="175"/>
+      <c r="S115" s="175"/>
+      <c r="T115" s="175"/>
+      <c r="U115" s="175"/>
+      <c r="V115" s="175"/>
+      <c r="W115" s="175"/>
+      <c r="X115" s="175"/>
+      <c r="Y115" s="175"/>
+      <c r="Z115" s="175"/>
+      <c r="AA115" s="175"/>
+      <c r="AB115" s="175"/>
+      <c r="AC115" s="175"/>
+      <c r="AD115" s="175"/>
+      <c r="AE115" s="175"/>
+      <c r="AF115" s="175"/>
+      <c r="AG115" s="175"/>
+      <c r="AH115" s="175"/>
+      <c r="AI115" s="175"/>
+      <c r="AJ115" s="175"/>
+      <c r="AK115" s="175"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="177"/>
-      <c r="B116" s="177"/>
-      <c r="C116" s="177"/>
-      <c r="D116" s="177"/>
-      <c r="E116" s="177"/>
-      <c r="F116" s="177"/>
-      <c r="G116" s="177"/>
-      <c r="H116" s="177"/>
-      <c r="I116" s="177"/>
-      <c r="J116" s="177"/>
-      <c r="K116" s="177"/>
-      <c r="L116" s="177"/>
-      <c r="M116" s="177"/>
-      <c r="N116" s="177"/>
-      <c r="O116" s="177"/>
-      <c r="P116" s="177"/>
-      <c r="Q116" s="177"/>
-      <c r="R116" s="177"/>
-      <c r="S116" s="177"/>
-      <c r="T116" s="177"/>
-      <c r="U116" s="177"/>
-      <c r="V116" s="177"/>
-      <c r="W116" s="177"/>
-      <c r="X116" s="177"/>
-      <c r="Y116" s="177"/>
-      <c r="Z116" s="177"/>
-      <c r="AA116" s="177"/>
-      <c r="AB116" s="177"/>
-      <c r="AC116" s="177"/>
-      <c r="AD116" s="177"/>
-      <c r="AE116" s="177"/>
-      <c r="AF116" s="177"/>
-      <c r="AG116" s="177"/>
-      <c r="AH116" s="177"/>
-      <c r="AI116" s="177"/>
-      <c r="AJ116" s="177"/>
-      <c r="AK116" s="177"/>
+      <c r="A116" s="175"/>
+      <c r="B116" s="175"/>
+      <c r="C116" s="175"/>
+      <c r="D116" s="175"/>
+      <c r="E116" s="175"/>
+      <c r="F116" s="175"/>
+      <c r="G116" s="175"/>
+      <c r="H116" s="175"/>
+      <c r="I116" s="175"/>
+      <c r="J116" s="175"/>
+      <c r="K116" s="175"/>
+      <c r="L116" s="175"/>
+      <c r="M116" s="175"/>
+      <c r="N116" s="175"/>
+      <c r="O116" s="175"/>
+      <c r="P116" s="175"/>
+      <c r="Q116" s="175"/>
+      <c r="R116" s="175"/>
+      <c r="S116" s="175"/>
+      <c r="T116" s="175"/>
+      <c r="U116" s="175"/>
+      <c r="V116" s="175"/>
+      <c r="W116" s="175"/>
+      <c r="X116" s="175"/>
+      <c r="Y116" s="175"/>
+      <c r="Z116" s="175"/>
+      <c r="AA116" s="175"/>
+      <c r="AB116" s="175"/>
+      <c r="AC116" s="175"/>
+      <c r="AD116" s="175"/>
+      <c r="AE116" s="175"/>
+      <c r="AF116" s="175"/>
+      <c r="AG116" s="175"/>
+      <c r="AH116" s="175"/>
+      <c r="AI116" s="175"/>
+      <c r="AJ116" s="175"/>
+      <c r="AK116" s="175"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="177"/>
-      <c r="B117" s="177"/>
-      <c r="C117" s="177"/>
-      <c r="D117" s="177"/>
-      <c r="E117" s="177"/>
-      <c r="F117" s="177"/>
-      <c r="G117" s="177"/>
-      <c r="H117" s="177"/>
-      <c r="I117" s="177"/>
-      <c r="J117" s="177"/>
-      <c r="K117" s="177"/>
-      <c r="L117" s="177"/>
-      <c r="M117" s="177"/>
-      <c r="N117" s="177"/>
-      <c r="O117" s="177"/>
-      <c r="P117" s="177"/>
-      <c r="Q117" s="177"/>
-      <c r="R117" s="177"/>
-      <c r="S117" s="177"/>
-      <c r="T117" s="177"/>
-      <c r="U117" s="177"/>
-      <c r="V117" s="177"/>
-      <c r="W117" s="177"/>
-      <c r="X117" s="177"/>
-      <c r="Y117" s="177"/>
-      <c r="Z117" s="177"/>
-      <c r="AA117" s="177"/>
-      <c r="AB117" s="177"/>
-      <c r="AC117" s="177"/>
-      <c r="AD117" s="177"/>
-      <c r="AE117" s="177"/>
-      <c r="AF117" s="177"/>
-      <c r="AG117" s="177"/>
-      <c r="AH117" s="177"/>
-      <c r="AI117" s="177"/>
-      <c r="AJ117" s="177"/>
-      <c r="AK117" s="177"/>
+      <c r="A117" s="175"/>
+      <c r="B117" s="175"/>
+      <c r="C117" s="175"/>
+      <c r="D117" s="175"/>
+      <c r="E117" s="175"/>
+      <c r="F117" s="175"/>
+      <c r="G117" s="175"/>
+      <c r="H117" s="175"/>
+      <c r="I117" s="175"/>
+      <c r="J117" s="175"/>
+      <c r="K117" s="175"/>
+      <c r="L117" s="175"/>
+      <c r="M117" s="175"/>
+      <c r="N117" s="175"/>
+      <c r="O117" s="175"/>
+      <c r="P117" s="175"/>
+      <c r="Q117" s="175"/>
+      <c r="R117" s="175"/>
+      <c r="S117" s="175"/>
+      <c r="T117" s="175"/>
+      <c r="U117" s="175"/>
+      <c r="V117" s="175"/>
+      <c r="W117" s="175"/>
+      <c r="X117" s="175"/>
+      <c r="Y117" s="175"/>
+      <c r="Z117" s="175"/>
+      <c r="AA117" s="175"/>
+      <c r="AB117" s="175"/>
+      <c r="AC117" s="175"/>
+      <c r="AD117" s="175"/>
+      <c r="AE117" s="175"/>
+      <c r="AF117" s="175"/>
+      <c r="AG117" s="175"/>
+      <c r="AH117" s="175"/>
+      <c r="AI117" s="175"/>
+      <c r="AJ117" s="175"/>
+      <c r="AK117" s="175"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="177"/>
-      <c r="B118" s="177"/>
-      <c r="C118" s="177"/>
-      <c r="D118" s="177"/>
-      <c r="E118" s="177"/>
-      <c r="F118" s="177"/>
-      <c r="G118" s="177"/>
-      <c r="H118" s="177"/>
-      <c r="I118" s="177"/>
-      <c r="J118" s="177"/>
-      <c r="K118" s="177"/>
-      <c r="L118" s="177"/>
-      <c r="M118" s="177"/>
-      <c r="N118" s="177"/>
-      <c r="O118" s="177"/>
-      <c r="P118" s="177"/>
-      <c r="Q118" s="177"/>
-      <c r="R118" s="177"/>
-      <c r="S118" s="177"/>
-      <c r="T118" s="177"/>
-      <c r="U118" s="177"/>
-      <c r="V118" s="177"/>
-      <c r="W118" s="177"/>
-      <c r="X118" s="177"/>
-      <c r="Y118" s="177"/>
-      <c r="Z118" s="177"/>
-      <c r="AA118" s="177"/>
-      <c r="AB118" s="177"/>
-      <c r="AC118" s="177"/>
-      <c r="AD118" s="177"/>
-      <c r="AE118" s="177"/>
-      <c r="AF118" s="177"/>
-      <c r="AG118" s="177"/>
-      <c r="AH118" s="177"/>
-      <c r="AI118" s="177"/>
-      <c r="AJ118" s="177"/>
-      <c r="AK118" s="177"/>
+      <c r="A118" s="175"/>
+      <c r="B118" s="175"/>
+      <c r="C118" s="175"/>
+      <c r="D118" s="175"/>
+      <c r="E118" s="175"/>
+      <c r="F118" s="175"/>
+      <c r="G118" s="175"/>
+      <c r="H118" s="175"/>
+      <c r="I118" s="175"/>
+      <c r="J118" s="175"/>
+      <c r="K118" s="175"/>
+      <c r="L118" s="175"/>
+      <c r="M118" s="175"/>
+      <c r="N118" s="175"/>
+      <c r="O118" s="175"/>
+      <c r="P118" s="175"/>
+      <c r="Q118" s="175"/>
+      <c r="R118" s="175"/>
+      <c r="S118" s="175"/>
+      <c r="T118" s="175"/>
+      <c r="U118" s="175"/>
+      <c r="V118" s="175"/>
+      <c r="W118" s="175"/>
+      <c r="X118" s="175"/>
+      <c r="Y118" s="175"/>
+      <c r="Z118" s="175"/>
+      <c r="AA118" s="175"/>
+      <c r="AB118" s="175"/>
+      <c r="AC118" s="175"/>
+      <c r="AD118" s="175"/>
+      <c r="AE118" s="175"/>
+      <c r="AF118" s="175"/>
+      <c r="AG118" s="175"/>
+      <c r="AH118" s="175"/>
+      <c r="AI118" s="175"/>
+      <c r="AJ118" s="175"/>
+      <c r="AK118" s="175"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="177"/>
-      <c r="B119" s="177"/>
-      <c r="C119" s="177"/>
-      <c r="D119" s="177"/>
-      <c r="E119" s="177"/>
-      <c r="F119" s="177"/>
-      <c r="G119" s="177"/>
-      <c r="H119" s="177"/>
-      <c r="I119" s="177"/>
-      <c r="J119" s="177"/>
-      <c r="K119" s="177"/>
-      <c r="L119" s="177"/>
-      <c r="M119" s="177"/>
-      <c r="N119" s="177"/>
-      <c r="O119" s="177"/>
-      <c r="P119" s="177"/>
-      <c r="Q119" s="177"/>
-      <c r="R119" s="177"/>
-      <c r="S119" s="177"/>
-      <c r="T119" s="177"/>
-      <c r="U119" s="177"/>
-      <c r="V119" s="177"/>
-      <c r="W119" s="177"/>
-      <c r="X119" s="177"/>
-      <c r="Y119" s="177"/>
-      <c r="Z119" s="177"/>
-      <c r="AA119" s="177"/>
-      <c r="AB119" s="177"/>
-      <c r="AC119" s="177"/>
-      <c r="AD119" s="177"/>
-      <c r="AE119" s="177"/>
-      <c r="AF119" s="177"/>
-      <c r="AG119" s="177"/>
-      <c r="AH119" s="177"/>
-      <c r="AI119" s="177"/>
-      <c r="AJ119" s="177"/>
-      <c r="AK119" s="177"/>
+      <c r="A119" s="175"/>
+      <c r="B119" s="175"/>
+      <c r="C119" s="175"/>
+      <c r="D119" s="175"/>
+      <c r="E119" s="175"/>
+      <c r="F119" s="175"/>
+      <c r="G119" s="175"/>
+      <c r="H119" s="175"/>
+      <c r="I119" s="175"/>
+      <c r="J119" s="175"/>
+      <c r="K119" s="175"/>
+      <c r="L119" s="175"/>
+      <c r="M119" s="175"/>
+      <c r="N119" s="175"/>
+      <c r="O119" s="175"/>
+      <c r="P119" s="175"/>
+      <c r="Q119" s="175"/>
+      <c r="R119" s="175"/>
+      <c r="S119" s="175"/>
+      <c r="T119" s="175"/>
+      <c r="U119" s="175"/>
+      <c r="V119" s="175"/>
+      <c r="W119" s="175"/>
+      <c r="X119" s="175"/>
+      <c r="Y119" s="175"/>
+      <c r="Z119" s="175"/>
+      <c r="AA119" s="175"/>
+      <c r="AB119" s="175"/>
+      <c r="AC119" s="175"/>
+      <c r="AD119" s="175"/>
+      <c r="AE119" s="175"/>
+      <c r="AF119" s="175"/>
+      <c r="AG119" s="175"/>
+      <c r="AH119" s="175"/>
+      <c r="AI119" s="175"/>
+      <c r="AJ119" s="175"/>
+      <c r="AK119" s="175"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="177"/>
-      <c r="B120" s="177"/>
-      <c r="C120" s="177"/>
-      <c r="D120" s="177"/>
-      <c r="E120" s="177"/>
-      <c r="F120" s="177"/>
-      <c r="G120" s="177"/>
-      <c r="H120" s="177"/>
-      <c r="I120" s="177"/>
-      <c r="J120" s="177"/>
-      <c r="K120" s="177"/>
-      <c r="L120" s="177"/>
-      <c r="M120" s="177"/>
-      <c r="N120" s="177"/>
-      <c r="O120" s="177"/>
-      <c r="P120" s="177"/>
-      <c r="Q120" s="177"/>
-      <c r="R120" s="177"/>
-      <c r="S120" s="177"/>
-      <c r="T120" s="177"/>
-      <c r="U120" s="177"/>
-      <c r="V120" s="177"/>
-      <c r="W120" s="177"/>
-      <c r="X120" s="177"/>
-      <c r="Y120" s="177"/>
-      <c r="Z120" s="177"/>
-      <c r="AA120" s="177"/>
-      <c r="AB120" s="177"/>
-      <c r="AC120" s="177"/>
-      <c r="AD120" s="177"/>
-      <c r="AE120" s="177"/>
-      <c r="AF120" s="177"/>
-      <c r="AG120" s="177"/>
-      <c r="AH120" s="177"/>
-      <c r="AI120" s="177"/>
-      <c r="AJ120" s="177"/>
-      <c r="AK120" s="177"/>
+      <c r="A120" s="175"/>
+      <c r="B120" s="175"/>
+      <c r="C120" s="175"/>
+      <c r="D120" s="175"/>
+      <c r="E120" s="175"/>
+      <c r="F120" s="175"/>
+      <c r="G120" s="175"/>
+      <c r="H120" s="175"/>
+      <c r="I120" s="175"/>
+      <c r="J120" s="175"/>
+      <c r="K120" s="175"/>
+      <c r="L120" s="175"/>
+      <c r="M120" s="175"/>
+      <c r="N120" s="175"/>
+      <c r="O120" s="175"/>
+      <c r="P120" s="175"/>
+      <c r="Q120" s="175"/>
+      <c r="R120" s="175"/>
+      <c r="S120" s="175"/>
+      <c r="T120" s="175"/>
+      <c r="U120" s="175"/>
+      <c r="V120" s="175"/>
+      <c r="W120" s="175"/>
+      <c r="X120" s="175"/>
+      <c r="Y120" s="175"/>
+      <c r="Z120" s="175"/>
+      <c r="AA120" s="175"/>
+      <c r="AB120" s="175"/>
+      <c r="AC120" s="175"/>
+      <c r="AD120" s="175"/>
+      <c r="AE120" s="175"/>
+      <c r="AF120" s="175"/>
+      <c r="AG120" s="175"/>
+      <c r="AH120" s="175"/>
+      <c r="AI120" s="175"/>
+      <c r="AJ120" s="175"/>
+      <c r="AK120" s="175"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="177"/>
-      <c r="B121" s="177"/>
-      <c r="C121" s="177"/>
-      <c r="D121" s="177"/>
-      <c r="F121" s="177"/>
-      <c r="G121" s="177"/>
-      <c r="H121" s="177"/>
-      <c r="I121" s="177"/>
-      <c r="Q121" s="177"/>
-      <c r="R121" s="177"/>
+      <c r="A121" s="175"/>
+      <c r="B121" s="175"/>
+      <c r="C121" s="175"/>
+      <c r="D121" s="175"/>
+      <c r="F121" s="175"/>
+      <c r="G121" s="175"/>
+      <c r="H121" s="175"/>
+      <c r="I121" s="175"/>
+      <c r="Q121" s="175"/>
+      <c r="R121" s="175"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
@@ -6984,190 +6893,190 @@
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="U49:Z49"/>
-    <mergeCell ref="U55:Z55"/>
-    <mergeCell ref="U62:Z62"/>
-    <mergeCell ref="U61:Z61"/>
-    <mergeCell ref="T50:T55"/>
-    <mergeCell ref="S50:S55"/>
-    <mergeCell ref="S56:S61"/>
-    <mergeCell ref="T56:T61"/>
-    <mergeCell ref="S44:S49"/>
-    <mergeCell ref="T44:T49"/>
-    <mergeCell ref="R50:R55"/>
-    <mergeCell ref="R56:R61"/>
-    <mergeCell ref="Q50:Q55"/>
-    <mergeCell ref="Q56:Q61"/>
-    <mergeCell ref="O56:O61"/>
-    <mergeCell ref="P56:P61"/>
-    <mergeCell ref="P50:P55"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="R44:R49"/>
-    <mergeCell ref="Q44:Q49"/>
-    <mergeCell ref="O44:O49"/>
+    <mergeCell ref="A50:E55"/>
+    <mergeCell ref="F50:G55"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A56:E61"/>
+    <mergeCell ref="A44:E49"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="I56:I61"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="H13:I18"/>
+    <mergeCell ref="A42:E43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="A19:A24"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
     <mergeCell ref="D13:D18"/>
-    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="D19:D24"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="F56:G61"/>
+    <mergeCell ref="H56:H61"/>
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="H50:H55"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="E19:E24"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="U10:Z11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="Q4:X4"/>
-    <mergeCell ref="E2:Z2"/>
-    <mergeCell ref="H5:P5"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="H7:Z7"/>
-    <mergeCell ref="A8:Z8"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="K13:K18"/>
-    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H19:I24"/>
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="E13:E18"/>
-    <mergeCell ref="N13:N18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="Q6:X6"/>
-    <mergeCell ref="Q5:X5"/>
-    <mergeCell ref="P13:P18"/>
-    <mergeCell ref="U18:Z18"/>
-    <mergeCell ref="R13:R18"/>
+    <mergeCell ref="H25:I30"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="I44:I49"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="H31:I36"/>
     <mergeCell ref="F44:G49"/>
     <mergeCell ref="H44:H49"/>
-    <mergeCell ref="F56:G61"/>
-    <mergeCell ref="H56:H61"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="K56:K61"/>
+    <mergeCell ref="J50:J55"/>
+    <mergeCell ref="J56:J61"/>
     <mergeCell ref="K50:K55"/>
-    <mergeCell ref="J56:J61"/>
-    <mergeCell ref="I56:I61"/>
-    <mergeCell ref="A50:E55"/>
-    <mergeCell ref="A56:E61"/>
-    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="L56:L61"/>
+    <mergeCell ref="L50:L55"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="N31:N36"/>
     <mergeCell ref="J62:R62"/>
-    <mergeCell ref="K56:K61"/>
-    <mergeCell ref="L56:L61"/>
+    <mergeCell ref="N50:N55"/>
+    <mergeCell ref="O56:O61"/>
+    <mergeCell ref="M44:M49"/>
+    <mergeCell ref="N44:N49"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="M13:M18"/>
+    <mergeCell ref="K13:K18"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="N13:N18"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="N25:N30"/>
+    <mergeCell ref="K19:K24"/>
+    <mergeCell ref="R56:R61"/>
+    <mergeCell ref="P56:P61"/>
+    <mergeCell ref="Q56:Q61"/>
     <mergeCell ref="N56:N61"/>
     <mergeCell ref="M56:M61"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="A42:E43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="K44:K49"/>
     <mergeCell ref="L44:L49"/>
-    <mergeCell ref="N44:N49"/>
-    <mergeCell ref="O50:O55"/>
-    <mergeCell ref="I50:I55"/>
-    <mergeCell ref="J50:J55"/>
-    <mergeCell ref="L50:L55"/>
-    <mergeCell ref="F50:G55"/>
-    <mergeCell ref="H50:H55"/>
-    <mergeCell ref="A44:E49"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T13:T18"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="H25:I30"/>
-    <mergeCell ref="K19:K24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="L25:L30"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="H13:I18"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="E3:G7"/>
-    <mergeCell ref="A37:G38"/>
-    <mergeCell ref="H38:Z38"/>
-    <mergeCell ref="H37:Z37"/>
-    <mergeCell ref="A41:Y41"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="H31:I36"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="R31:R36"/>
+    <mergeCell ref="R25:R30"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="P25:P30"/>
+    <mergeCell ref="Q25:Q30"/>
+    <mergeCell ref="P31:P36"/>
+    <mergeCell ref="S31:S36"/>
+    <mergeCell ref="P13:P18"/>
+    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="S25:S30"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="O31:O36"/>
+    <mergeCell ref="AA31:AD32"/>
     <mergeCell ref="AA28:AD30"/>
     <mergeCell ref="AA25:AD27"/>
     <mergeCell ref="AA33:AF35"/>
-    <mergeCell ref="AA31:AD32"/>
-    <mergeCell ref="H19:I24"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="N31:N36"/>
-    <mergeCell ref="K31:K36"/>
-    <mergeCell ref="O31:O36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="H38:Z38"/>
+    <mergeCell ref="H37:Z37"/>
     <mergeCell ref="T31:T36"/>
-    <mergeCell ref="Q31:Q36"/>
-    <mergeCell ref="R31:R36"/>
-    <mergeCell ref="S31:S36"/>
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="N25:N30"/>
+    <mergeCell ref="U36:Z36"/>
+    <mergeCell ref="Y4:Z6"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="U24:Z24"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="H7:Z7"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A8:Z8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="U10:Z11"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="A41:Y41"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="G25:G30"/>
     <mergeCell ref="O25:O30"/>
-    <mergeCell ref="R25:R30"/>
-    <mergeCell ref="S25:S30"/>
-    <mergeCell ref="Q25:Q30"/>
-    <mergeCell ref="P25:P30"/>
-    <mergeCell ref="T25:T30"/>
-    <mergeCell ref="U24:Z24"/>
-    <mergeCell ref="S13:S18"/>
-    <mergeCell ref="Q13:Q18"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="T19:T24"/>
-    <mergeCell ref="S19:S24"/>
-    <mergeCell ref="Q19:Q24"/>
-    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="O19:O24"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="E2:Z2"/>
+    <mergeCell ref="E3:G7"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="H5:P5"/>
     <mergeCell ref="Q3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z6"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="U36:Z36"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="U42:Z42"/>
+    <mergeCell ref="S44:S49"/>
+    <mergeCell ref="U49:Z49"/>
+    <mergeCell ref="R42:R43"/>
     <mergeCell ref="S42:S43"/>
     <mergeCell ref="T42:T43"/>
-    <mergeCell ref="I44:I49"/>
-    <mergeCell ref="J44:J49"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="O19:O24"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="M44:M49"/>
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="N50:N55"/>
+    <mergeCell ref="T50:T55"/>
+    <mergeCell ref="R44:R49"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="U62:Z62"/>
+    <mergeCell ref="U61:Z61"/>
+    <mergeCell ref="S56:S61"/>
+    <mergeCell ref="U42:Z42"/>
+    <mergeCell ref="U55:Z55"/>
+    <mergeCell ref="S50:S55"/>
+    <mergeCell ref="Q13:Q18"/>
+    <mergeCell ref="R13:R18"/>
+    <mergeCell ref="Q5:X5"/>
+    <mergeCell ref="T13:T18"/>
+    <mergeCell ref="S13:S18"/>
+    <mergeCell ref="Q6:X6"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S19:S24"/>
+    <mergeCell ref="T19:T24"/>
+    <mergeCell ref="T25:T30"/>
+    <mergeCell ref="P19:P24"/>
+    <mergeCell ref="Q19:Q24"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="O44:O49"/>
+    <mergeCell ref="Q31:Q36"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="Q50:Q55"/>
+    <mergeCell ref="Q44:Q49"/>
+    <mergeCell ref="O50:O55"/>
+    <mergeCell ref="P50:P55"/>
+    <mergeCell ref="R50:R55"/>
+    <mergeCell ref="T56:T61"/>
+    <mergeCell ref="T44:T49"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q44 Q50 Q56">
